--- a/stat512_hw1.xlsx
+++ b/stat512_hw1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efhla/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efhla/coursera/stat512_hw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5435B647-A4B6-4E4C-BF39-718D43787EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EAABF5-7C7D-5A4F-A4B7-86E4A04E2C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{07C77F40-75D0-B84E-ADF9-D3B76DF1F512}"/>
   </bookViews>
   <sheets>
     <sheet name="q1_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -510,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7575EE18-0BCA-124D-BF01-F671F63B2DF0}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E10" activeCellId="1" sqref="F15 E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1">
+    <row r="1" spans="1:10" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>5734.2756249999993</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6810.3756250000006</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -646,7 +646,7 @@
         <v>546.390625</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
+    <row r="5" spans="1:10" ht="17" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -679,7 +679,7 @@
         <v>719.58062499999983</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1">
+    <row r="6" spans="1:10" ht="17" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13810.622499999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -733,7 +733,7 @@
         <v>26022.309999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" ht="17" thickBot="1">
       <c r="B10">
         <f>4*(B6-$B$8)^2</f>
         <v>7770.4225000000006</v>
@@ -750,8 +750,12 @@
         <f t="shared" si="3"/>
         <v>6536.7225000000017</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -759,8 +763,18 @@
         <f>SUM(B10:E10)</f>
         <v>15924.270000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -768,13 +782,17 @@
         <f>B9-B11</f>
         <v>10098.039999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
